--- a/SOMC/SET50_Forward_Simulation.xlsx
+++ b/SOMC/SET50_Forward_Simulation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -76,11 +76,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,10 +91,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,35 +120,61 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -152,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -193,69 +224,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,54 +312,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -336,7 +368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -345,7 +377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,10 +394,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -394,7 +426,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -407,13 +439,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -431,3786 +462,3810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3">
         <v>45677</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>896.6257076849815</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>696.63</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>721.63</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>746.63</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>771.63</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>796.63</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>821.63</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>846.63</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>871.63</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>896.63</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>921.63</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>946.63</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>971.63</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>996.63</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>1021.63</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>1046.63</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>1071.63</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>1096.63</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3">
         <v>45678</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>895.0209933184501</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>695.02</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>720.02</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>745.02</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>770.02</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>795.02</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>820.02</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>845.02</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>870.02</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>895.02</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>920.02</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>945.02</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>970.02</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>995.02</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>1020.02</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>1045.02</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>1070.02</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>1095.02</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3">
         <v>45679</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>898.8204048746138</v>
       </c>
-      <c r="C4">
-        <v>698.8200000000001</v>
-      </c>
-      <c r="D4">
-        <v>723.8200000000001</v>
-      </c>
-      <c r="E4">
-        <v>748.8200000000001</v>
-      </c>
-      <c r="F4">
-        <v>773.8200000000001</v>
-      </c>
-      <c r="G4">
-        <v>798.8200000000001</v>
-      </c>
-      <c r="H4">
-        <v>823.8200000000001</v>
-      </c>
-      <c r="I4">
-        <v>848.8200000000001</v>
-      </c>
-      <c r="J4">
-        <v>873.8200000000001</v>
-      </c>
-      <c r="K4">
-        <v>898.8200000000001</v>
-      </c>
-      <c r="L4">
-        <v>923.8200000000001</v>
-      </c>
-      <c r="M4">
-        <v>948.8200000000001</v>
-      </c>
-      <c r="N4">
-        <v>973.8200000000001</v>
-      </c>
-      <c r="O4">
-        <v>998.8200000000001</v>
-      </c>
-      <c r="P4">
+      <c r="C4" s="4">
+        <v>698.82</v>
+      </c>
+      <c r="D4" s="4">
+        <v>723.82</v>
+      </c>
+      <c r="E4" s="4">
+        <v>748.82</v>
+      </c>
+      <c r="F4" s="4">
+        <v>773.82</v>
+      </c>
+      <c r="G4" s="4">
+        <v>798.82</v>
+      </c>
+      <c r="H4" s="4">
+        <v>823.82</v>
+      </c>
+      <c r="I4" s="4">
+        <v>848.82</v>
+      </c>
+      <c r="J4" s="4">
+        <v>873.82</v>
+      </c>
+      <c r="K4" s="4">
+        <v>898.82</v>
+      </c>
+      <c r="L4" s="4">
+        <v>923.82</v>
+      </c>
+      <c r="M4" s="4">
+        <v>948.82</v>
+      </c>
+      <c r="N4" s="4">
+        <v>973.82</v>
+      </c>
+      <c r="O4" s="4">
+        <v>998.82</v>
+      </c>
+      <c r="P4" s="4">
         <v>1023.82</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>1048.82</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>1073.82</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>1098.82</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3">
         <v>45680</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>908.7156418897695</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>708.72</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>733.72</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>758.72</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>783.72</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>808.72</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>833.72</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>858.72</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>883.72</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>908.72</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>933.72</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>958.72</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>983.72</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>1008.72</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>1033.72</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>1058.72</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <v>1083.72</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>1108.72</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3">
         <v>45681</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>906.4224940632636</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>706.42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>731.42</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>756.42</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>781.42</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>806.42</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>831.42</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>856.42</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>881.42</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>906.42</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>931.42</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>956.42</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>981.42</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>1006.42</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>1031.42</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>1056.42</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>1081.42</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>1106.42</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3">
         <v>45684</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>904.1352468415126</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>704.14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>729.14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>754.14</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>779.14</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>804.14</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>829.14</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>854.14</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>879.14</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>904.14</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>929.14</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>954.14</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>979.14</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>1004.14</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>1029.14</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>1054.14</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>1079.14</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>1104.14</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3">
         <v>45685</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>914.4829265488569</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>714.48</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>739.48</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>764.48</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>789.48</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>814.48</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>839.48</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>864.48</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>889.48</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>914.48</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>939.48</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>964.48</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>989.48</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>1014.48</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>1039.48</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>1064.48</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>1089.48</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>1114.48</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="3">
         <v>45686</v>
       </c>
-      <c r="B9">
-        <v>919.2086972934439</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="4">
+        <v>919.208697293444</v>
+      </c>
+      <c r="C9" s="4">
         <v>719.21</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>744.21</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>769.21</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>794.21</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>819.21</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>844.21</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>869.21</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>894.21</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>919.21</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>944.21</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>969.21</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>994.21</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>1019.21</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>1044.21</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>1069.21</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>1094.21</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>1119.21</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="3">
         <v>45687</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>915.2358943756445</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>715.24</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>740.24</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>765.24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>790.24</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>815.24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>840.24</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>865.24</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>890.24</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>915.24</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>940.24</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>965.24</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>990.24</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>1015.24</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>1040.24</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>1065.24</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>1090.24</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>1115.24</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="3">
         <v>45688</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>918.3804036544552</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>718.38</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>743.38</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>768.38</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>793.38</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>818.38</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>843.38</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>868.38</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>893.38</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>918.38</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>943.38</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>968.38</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>993.38</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="4">
         <v>1018.38</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="4">
         <v>1043.38</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>1068.38</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="4">
         <v>1093.38</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <v>1118.38</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="3">
         <v>45691</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>914.4536543501904</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>714.45</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>739.45</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>764.45</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>789.45</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>814.45</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>839.45</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>864.45</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>889.45</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>914.45</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>939.45</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>964.45</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>989.45</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>1014.45</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>1039.45</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>1064.45</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <v>1089.45</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>1114.45</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="3">
         <v>45692</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>910.5275500933078</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>710.53</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>735.53</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>760.53</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>785.53</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>810.53</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>835.53</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>860.53</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>885.53</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>910.53</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>935.53</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>960.53</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>985.53</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>1010.53</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="4">
         <v>1035.53</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>1060.53</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="4">
         <v>1085.53</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <v>1110.53</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="3">
         <v>45693</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>911.5520980619075</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>711.55</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>736.55</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>761.55</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>786.55</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>811.55</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>836.55</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>861.55</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>886.55</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>911.55</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>936.55</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>961.55</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>986.55</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>1011.55</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>1036.55</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>1061.55</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <v>1086.55</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <v>1111.55</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3">
         <v>45694</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>897.6183614163153</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>697.62</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>722.62</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>747.62</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>772.62</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>797.62</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>822.62</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>847.62</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>872.62</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>897.62</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>922.62</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>947.62</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>972.62</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="4">
         <v>997.62</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="4">
         <v>1022.62</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>1047.62</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="4">
         <v>1072.62</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <v>1097.62</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3">
         <v>45695</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>885.1753543834203</v>
       </c>
-      <c r="C16">
-        <v>685.1799999999999</v>
-      </c>
-      <c r="D16">
-        <v>710.1799999999999</v>
-      </c>
-      <c r="E16">
-        <v>735.1799999999999</v>
-      </c>
-      <c r="F16">
-        <v>760.1799999999999</v>
-      </c>
-      <c r="G16">
-        <v>785.1799999999999</v>
-      </c>
-      <c r="H16">
-        <v>810.1799999999999</v>
-      </c>
-      <c r="I16">
-        <v>835.1799999999999</v>
-      </c>
-      <c r="J16">
-        <v>860.1799999999999</v>
-      </c>
-      <c r="K16">
-        <v>885.1799999999999</v>
-      </c>
-      <c r="L16">
-        <v>910.1799999999999</v>
-      </c>
-      <c r="M16">
-        <v>935.1799999999999</v>
-      </c>
-      <c r="N16">
-        <v>960.1799999999999</v>
-      </c>
-      <c r="O16">
-        <v>985.1799999999999</v>
-      </c>
-      <c r="P16">
+      <c r="C16" s="4">
+        <v>685.18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>710.18</v>
+      </c>
+      <c r="E16" s="4">
+        <v>735.18</v>
+      </c>
+      <c r="F16" s="4">
+        <v>760.18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>785.18</v>
+      </c>
+      <c r="H16" s="4">
+        <v>810.18</v>
+      </c>
+      <c r="I16" s="4">
+        <v>835.18</v>
+      </c>
+      <c r="J16" s="4">
+        <v>860.18</v>
+      </c>
+      <c r="K16" s="4">
+        <v>885.18</v>
+      </c>
+      <c r="L16" s="4">
+        <v>910.18</v>
+      </c>
+      <c r="M16" s="4">
+        <v>935.18</v>
+      </c>
+      <c r="N16" s="4">
+        <v>960.18</v>
+      </c>
+      <c r="O16" s="4">
+        <v>985.18</v>
+      </c>
+      <c r="P16" s="4">
         <v>1010.18</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>1035.18</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <v>1060.18</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <v>1085.18</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="3">
         <v>45698</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>880.7225433425623</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>680.72</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>705.72</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>730.72</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>755.72</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>780.72</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>805.72</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>830.72</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>855.72</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>880.72</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>905.72</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>930.72</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>955.72</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>980.72</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>1005.72</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
         <v>1030.72</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="4">
         <v>1055.72</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <v>1080.72</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3">
         <v>45699</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>873.2696129669569</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>673.27</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>698.27</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>723.27</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>748.27</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>773.27</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>798.27</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>823.27</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>848.27</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>873.27</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>898.27</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>923.27</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <v>948.27</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <v>973.27</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>998.27</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="4">
         <v>1023.27</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="4">
         <v>1048.27</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <v>1073.27</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3">
         <v>45700</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>874.7370110831714</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>674.74</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>699.74</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>724.74</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>749.74</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>774.74</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>799.74</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>824.74</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>849.74</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>874.74</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>899.74</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>924.74</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>949.74</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>974.74</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>999.74</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
         <v>1024.74</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="4">
         <v>1049.74</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>1074.74</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3">
         <v>45701</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>868.0321371216337</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>668.03</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>693.03</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>718.03</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>743.03</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>768.03</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>793.03</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>818.03</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>843.03</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>868.03</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>893.03</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>918.03</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>943.03</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>968.03</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>993.03</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
         <v>1018.03</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <v>1043.03</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <v>1068.03</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="2">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3">
         <v>45702</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>858.0539030973858</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>658.05</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>683.05</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>708.05</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>733.05</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>758.05</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>783.05</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>808.05</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>833.05</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>858.05</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>883.05</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>908.05</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>933.05</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>958.05</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>983.05</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <v>1008.05</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="4">
         <v>1033.05</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <v>1058.05</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="2">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3">
         <v>45705</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>867.1186764695739</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>667.12</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>692.12</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>717.12</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>742.12</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>767.12</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>792.12</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>817.12</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>842.12</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>867.12</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>892.12</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>917.12</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>942.12</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>967.12</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="4">
         <v>992.12</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="4">
         <v>1017.12</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="4">
         <v>1042.12</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>1067.12</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="2">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3">
         <v>45706</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>864.9860662675197</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>664.99</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>689.99</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>714.99</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>739.99</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>764.99</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>789.99</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>814.99</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>839.99</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>864.99</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>889.99</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>914.99</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>939.99</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="4">
         <v>964.99</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="4">
         <v>989.99</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="4">
         <v>1014.99</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="4">
         <v>1039.99</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <v>1064.99</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="2">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3">
         <v>45707</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>864.8017346166257</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>664.8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>689.8</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>714.8</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>739.8</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>764.8</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>789.8</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>814.8</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>839.8</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>864.8</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>889.8</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>914.8</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>939.8</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="4">
         <v>964.8</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="4">
         <v>989.8</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="4">
         <v>1014.8</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="4">
         <v>1039.8</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <v>1064.8</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="2">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3">
         <v>45708</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>854.7790546092241</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>654.78</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>679.78</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>704.78</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>729.78</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>754.78</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>779.78</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>804.78</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>829.78</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>854.78</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>879.78</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>904.78</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>929.78</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="4">
         <v>954.78</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="4">
         <v>979.78</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="4">
         <v>1004.78</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="4">
         <v>1029.78</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <v>1054.78</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="2">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3">
         <v>45709</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>850.59593749116</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>650.6</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>675.6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>700.6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>725.6</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>750.6</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>775.6</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>800.6</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>825.6</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>850.6</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>875.6</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>900.6</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>925.6</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="4">
         <v>950.6</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="4">
         <v>975.6</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="4">
         <v>1000.6</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="4">
         <v>1025.6</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="4">
         <v>1050.6</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="2">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3">
         <v>45712</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>850.6977268273386</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>650.7</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>675.7</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>700.7</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>725.7</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>750.7</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>775.7</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>800.7</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>825.7</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>850.7</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>875.7</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>900.7</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>925.7</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="4">
         <v>950.7</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="4">
         <v>975.7</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="4">
         <v>1000.7</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="4">
         <v>1025.7</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <v>1050.7</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="2">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="3">
         <v>45713</v>
       </c>
-      <c r="B28">
-        <v>842.6056152456219</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="4">
+        <v>842.605615245622</v>
+      </c>
+      <c r="C28" s="4">
         <v>642.61</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>667.61</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>692.61</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>717.61</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>742.61</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>767.61</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>792.61</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>817.61</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>842.61</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>867.61</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>892.61</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>917.61</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="4">
         <v>942.61</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <v>967.61</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="4">
         <v>992.61</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="4">
         <v>1017.61</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <v>1042.61</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="3">
         <v>45714</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>844.4193339887314</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>644.42</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>669.42</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>694.42</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>719.42</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>744.42</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>769.42</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>794.42</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>819.42</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>844.42</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>869.42</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>894.42</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>919.42</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="4">
         <v>944.42</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
         <v>969.42</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="4">
         <v>994.42</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="4">
         <v>1019.42</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <v>1044.42</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="3">
         <v>45715</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>839.9244754790544</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>639.92</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>664.92</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>689.92</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>714.92</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>739.92</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>764.92</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>789.92</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>814.92</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>839.92</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="4">
         <v>864.92</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
         <v>889.92</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>914.92</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="4">
         <v>939.92</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
         <v>964.92</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="4">
         <v>989.92</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="4">
         <v>1014.92</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="4">
         <v>1039.92</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="3">
         <v>45716</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>837.4353044345287</v>
       </c>
-      <c r="C31">
-        <v>637.4400000000001</v>
-      </c>
-      <c r="D31">
-        <v>662.4400000000001</v>
-      </c>
-      <c r="E31">
-        <v>687.4400000000001</v>
-      </c>
-      <c r="F31">
-        <v>712.4400000000001</v>
-      </c>
-      <c r="G31">
-        <v>737.4400000000001</v>
-      </c>
-      <c r="H31">
-        <v>762.4400000000001</v>
-      </c>
-      <c r="I31">
-        <v>787.4400000000001</v>
-      </c>
-      <c r="J31">
-        <v>812.4400000000001</v>
-      </c>
-      <c r="K31">
-        <v>837.4400000000001</v>
-      </c>
-      <c r="L31">
-        <v>862.4400000000001</v>
-      </c>
-      <c r="M31">
-        <v>887.4400000000001</v>
-      </c>
-      <c r="N31">
-        <v>912.4400000000001</v>
-      </c>
-      <c r="O31">
-        <v>937.4400000000001</v>
-      </c>
-      <c r="P31">
-        <v>962.4400000000001</v>
-      </c>
-      <c r="Q31">
-        <v>987.4400000000001</v>
-      </c>
-      <c r="R31">
+      <c r="C31" s="4">
+        <v>637.44</v>
+      </c>
+      <c r="D31" s="4">
+        <v>662.44</v>
+      </c>
+      <c r="E31" s="4">
+        <v>687.44</v>
+      </c>
+      <c r="F31" s="4">
+        <v>712.44</v>
+      </c>
+      <c r="G31" s="4">
+        <v>737.44</v>
+      </c>
+      <c r="H31" s="4">
+        <v>762.44</v>
+      </c>
+      <c r="I31" s="4">
+        <v>787.44</v>
+      </c>
+      <c r="J31" s="4">
+        <v>812.44</v>
+      </c>
+      <c r="K31" s="4">
+        <v>837.44</v>
+      </c>
+      <c r="L31" s="4">
+        <v>862.44</v>
+      </c>
+      <c r="M31" s="4">
+        <v>887.44</v>
+      </c>
+      <c r="N31" s="4">
+        <v>912.44</v>
+      </c>
+      <c r="O31" s="4">
+        <v>937.44</v>
+      </c>
+      <c r="P31" s="4">
+        <v>962.44</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>987.44</v>
+      </c>
+      <c r="R31" s="4">
         <v>1012.44</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
         <v>1037.44</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="2">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3">
         <v>45719</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>832.9708001453765</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>632.97</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>657.97</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>682.97</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>707.97</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>732.97</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>757.97</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>782.97</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>807.97</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>832.97</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>857.97</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>882.97</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>907.97</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="4">
         <v>932.97</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="4">
         <v>957.97</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="4">
         <v>982.97</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="4">
         <v>1007.97</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="4">
         <v>1032.97</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="2">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3">
         <v>45720</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>844.270161123329</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>644.27</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>669.27</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>694.27</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>719.27</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>744.27</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>769.27</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>794.27</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>819.27</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <v>844.27</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="4">
         <v>869.27</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="4">
         <v>894.27</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="4">
         <v>919.27</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="4">
         <v>944.27</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="4">
         <v>969.27</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="4">
         <v>994.27</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="4">
         <v>1019.27</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
         <v>1044.27</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="2">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3">
         <v>45721</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>843.5659093353204</v>
       </c>
-      <c r="C34">
-        <v>643.5700000000001</v>
-      </c>
-      <c r="D34">
-        <v>668.5700000000001</v>
-      </c>
-      <c r="E34">
-        <v>693.5700000000001</v>
-      </c>
-      <c r="F34">
-        <v>718.5700000000001</v>
-      </c>
-      <c r="G34">
-        <v>743.5700000000001</v>
-      </c>
-      <c r="H34">
-        <v>768.5700000000001</v>
-      </c>
-      <c r="I34">
-        <v>793.5700000000001</v>
-      </c>
-      <c r="J34">
-        <v>818.5700000000001</v>
-      </c>
-      <c r="K34">
-        <v>843.5700000000001</v>
-      </c>
-      <c r="L34">
-        <v>868.5700000000001</v>
-      </c>
-      <c r="M34">
-        <v>893.5700000000001</v>
-      </c>
-      <c r="N34">
-        <v>918.5700000000001</v>
-      </c>
-      <c r="O34">
-        <v>943.5700000000001</v>
-      </c>
-      <c r="P34">
-        <v>968.5700000000001</v>
-      </c>
-      <c r="Q34">
-        <v>993.5700000000001</v>
-      </c>
-      <c r="R34">
+      <c r="C34" s="4">
+        <v>643.57</v>
+      </c>
+      <c r="D34" s="4">
+        <v>668.57</v>
+      </c>
+      <c r="E34" s="4">
+        <v>693.57</v>
+      </c>
+      <c r="F34" s="4">
+        <v>718.57</v>
+      </c>
+      <c r="G34" s="4">
+        <v>743.57</v>
+      </c>
+      <c r="H34" s="4">
+        <v>768.57</v>
+      </c>
+      <c r="I34" s="4">
+        <v>793.57</v>
+      </c>
+      <c r="J34" s="4">
+        <v>818.57</v>
+      </c>
+      <c r="K34" s="4">
+        <v>843.57</v>
+      </c>
+      <c r="L34" s="4">
+        <v>868.57</v>
+      </c>
+      <c r="M34" s="4">
+        <v>893.57</v>
+      </c>
+      <c r="N34" s="4">
+        <v>918.57</v>
+      </c>
+      <c r="O34" s="4">
+        <v>943.57</v>
+      </c>
+      <c r="P34" s="4">
+        <v>968.57</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>993.57</v>
+      </c>
+      <c r="R34" s="4">
         <v>1018.57</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
         <v>1043.57</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="2">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="3">
         <v>45722</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>836.1395780004646</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>636.14</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>661.14</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>686.14</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>711.14</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>736.14</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>761.14</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>786.14</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>811.14</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>836.14</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="4">
         <v>861.14</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="4">
         <v>886.14</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>911.14</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="4">
         <v>936.14</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="4">
         <v>961.14</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="4">
         <v>986.14</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="4">
         <v>1011.14</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="4">
         <v>1036.14</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="2">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="3">
         <v>45723</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>840.8157769428328</v>
       </c>
-      <c r="C36">
-        <v>640.8200000000001</v>
-      </c>
-      <c r="D36">
-        <v>665.8200000000001</v>
-      </c>
-      <c r="E36">
-        <v>690.8200000000001</v>
-      </c>
-      <c r="F36">
-        <v>715.8200000000001</v>
-      </c>
-      <c r="G36">
-        <v>740.8200000000001</v>
-      </c>
-      <c r="H36">
-        <v>765.8200000000001</v>
-      </c>
-      <c r="I36">
-        <v>790.8200000000001</v>
-      </c>
-      <c r="J36">
-        <v>815.8200000000001</v>
-      </c>
-      <c r="K36">
-        <v>840.8200000000001</v>
-      </c>
-      <c r="L36">
-        <v>865.8200000000001</v>
-      </c>
-      <c r="M36">
-        <v>890.8200000000001</v>
-      </c>
-      <c r="N36">
-        <v>915.8200000000001</v>
-      </c>
-      <c r="O36">
-        <v>940.8200000000001</v>
-      </c>
-      <c r="P36">
-        <v>965.8200000000001</v>
-      </c>
-      <c r="Q36">
-        <v>990.8200000000001</v>
-      </c>
-      <c r="R36">
+      <c r="C36" s="4">
+        <v>640.82</v>
+      </c>
+      <c r="D36" s="4">
+        <v>665.82</v>
+      </c>
+      <c r="E36" s="4">
+        <v>690.82</v>
+      </c>
+      <c r="F36" s="4">
+        <v>715.82</v>
+      </c>
+      <c r="G36" s="4">
+        <v>740.82</v>
+      </c>
+      <c r="H36" s="4">
+        <v>765.82</v>
+      </c>
+      <c r="I36" s="4">
+        <v>790.82</v>
+      </c>
+      <c r="J36" s="4">
+        <v>815.82</v>
+      </c>
+      <c r="K36" s="4">
+        <v>840.82</v>
+      </c>
+      <c r="L36" s="4">
+        <v>865.82</v>
+      </c>
+      <c r="M36" s="4">
+        <v>890.82</v>
+      </c>
+      <c r="N36" s="4">
+        <v>915.82</v>
+      </c>
+      <c r="O36" s="4">
+        <v>940.82</v>
+      </c>
+      <c r="P36" s="4">
+        <v>965.82</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>990.82</v>
+      </c>
+      <c r="R36" s="4">
         <v>1015.82</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="4">
         <v>1040.82</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="2">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="3">
         <v>45726</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>832.3716667115696</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>632.37</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>657.37</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>682.37</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>707.37</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>732.37</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>757.37</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>782.37</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>807.37</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>832.37</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>857.37</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <v>882.37</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
         <v>907.37</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="4">
         <v>932.37</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="4">
         <v>957.37</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="4">
         <v>982.37</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="4">
         <v>1007.37</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="4">
         <v>1032.37</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="2">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="3">
         <v>45727</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>833.0967794581511</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>633.1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>658.1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>683.1</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>708.1</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>733.1</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>758.1</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>783.1</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>808.1</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>833.1</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="4">
         <v>858.1</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="4">
         <v>883.1</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="4">
         <v>908.1</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="4">
         <v>933.1</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="4">
         <v>958.1</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="4">
         <v>983.1</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="4">
         <v>1008.1</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="4">
         <v>1033.1</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="2">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="3">
         <v>45728</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>820.0704895717085</v>
       </c>
-      <c r="C39">
-        <v>620.0700000000001</v>
-      </c>
-      <c r="D39">
-        <v>645.0700000000001</v>
-      </c>
-      <c r="E39">
-        <v>670.0700000000001</v>
-      </c>
-      <c r="F39">
-        <v>695.0700000000001</v>
-      </c>
-      <c r="G39">
-        <v>720.0700000000001</v>
-      </c>
-      <c r="H39">
-        <v>745.0700000000001</v>
-      </c>
-      <c r="I39">
-        <v>770.0700000000001</v>
-      </c>
-      <c r="J39">
-        <v>795.0700000000001</v>
-      </c>
-      <c r="K39">
-        <v>820.0700000000001</v>
-      </c>
-      <c r="L39">
-        <v>845.0700000000001</v>
-      </c>
-      <c r="M39">
-        <v>870.0700000000001</v>
-      </c>
-      <c r="N39">
-        <v>895.0700000000001</v>
-      </c>
-      <c r="O39">
-        <v>920.0700000000001</v>
-      </c>
-      <c r="P39">
-        <v>945.0700000000001</v>
-      </c>
-      <c r="Q39">
-        <v>970.0700000000001</v>
-      </c>
-      <c r="R39">
-        <v>995.0700000000001</v>
-      </c>
-      <c r="S39">
+      <c r="C39" s="4">
+        <v>620.07</v>
+      </c>
+      <c r="D39" s="4">
+        <v>645.07</v>
+      </c>
+      <c r="E39" s="4">
+        <v>670.07</v>
+      </c>
+      <c r="F39" s="4">
+        <v>695.07</v>
+      </c>
+      <c r="G39" s="4">
+        <v>720.07</v>
+      </c>
+      <c r="H39" s="4">
+        <v>745.07</v>
+      </c>
+      <c r="I39" s="4">
+        <v>770.07</v>
+      </c>
+      <c r="J39" s="4">
+        <v>795.07</v>
+      </c>
+      <c r="K39" s="4">
+        <v>820.07</v>
+      </c>
+      <c r="L39" s="4">
+        <v>845.07</v>
+      </c>
+      <c r="M39" s="4">
+        <v>870.07</v>
+      </c>
+      <c r="N39" s="4">
+        <v>895.07</v>
+      </c>
+      <c r="O39" s="4">
+        <v>920.07</v>
+      </c>
+      <c r="P39" s="4">
+        <v>945.07</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>970.07</v>
+      </c>
+      <c r="R39" s="4">
+        <v>995.07</v>
+      </c>
+      <c r="S39" s="4">
         <v>1020.07</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="2">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="3">
         <v>45729</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>811.1666930033654</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>611.17</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>636.17</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>661.17</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>686.17</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>711.17</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>736.17</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>761.17</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>786.17</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>811.17</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="4">
         <v>836.17</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="4">
         <v>861.17</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="4">
         <v>886.17</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="4">
         <v>911.17</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="4">
         <v>936.17</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="4">
         <v>961.17</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="4">
         <v>986.17</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="4">
         <v>1011.17</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="2">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="3">
         <v>45730</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>811.7986078333834</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>611.8</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>636.8</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>661.8</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>686.8</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>711.8</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>736.8</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>761.8</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>786.8</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>811.8</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="4">
         <v>836.8</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <v>861.8</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="4">
         <v>886.8</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="4">
         <v>911.8</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="4">
         <v>936.8</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="4">
         <v>961.8</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="4">
         <v>986.8</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="4">
         <v>1011.8</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="2">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="3">
         <v>45733</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>815.81248099827</v>
       </c>
-      <c r="C42">
-        <v>615.8099999999999</v>
-      </c>
-      <c r="D42">
-        <v>640.8099999999999</v>
-      </c>
-      <c r="E42">
-        <v>665.8099999999999</v>
-      </c>
-      <c r="F42">
-        <v>690.8099999999999</v>
-      </c>
-      <c r="G42">
-        <v>715.8099999999999</v>
-      </c>
-      <c r="H42">
-        <v>740.8099999999999</v>
-      </c>
-      <c r="I42">
-        <v>765.8099999999999</v>
-      </c>
-      <c r="J42">
-        <v>790.8099999999999</v>
-      </c>
-      <c r="K42">
-        <v>815.8099999999999</v>
-      </c>
-      <c r="L42">
-        <v>840.8099999999999</v>
-      </c>
-      <c r="M42">
-        <v>865.8099999999999</v>
-      </c>
-      <c r="N42">
-        <v>890.8099999999999</v>
-      </c>
-      <c r="O42">
-        <v>915.8099999999999</v>
-      </c>
-      <c r="P42">
-        <v>940.8099999999999</v>
-      </c>
-      <c r="Q42">
-        <v>965.8099999999999</v>
-      </c>
-      <c r="R42">
-        <v>990.8099999999999</v>
-      </c>
-      <c r="S42">
+      <c r="C42" s="4">
+        <v>615.81</v>
+      </c>
+      <c r="D42" s="4">
+        <v>640.81</v>
+      </c>
+      <c r="E42" s="4">
+        <v>665.81</v>
+      </c>
+      <c r="F42" s="4">
+        <v>690.81</v>
+      </c>
+      <c r="G42" s="4">
+        <v>715.81</v>
+      </c>
+      <c r="H42" s="4">
+        <v>740.81</v>
+      </c>
+      <c r="I42" s="4">
+        <v>765.81</v>
+      </c>
+      <c r="J42" s="4">
+        <v>790.81</v>
+      </c>
+      <c r="K42" s="4">
+        <v>815.81</v>
+      </c>
+      <c r="L42" s="4">
+        <v>840.81</v>
+      </c>
+      <c r="M42" s="4">
+        <v>865.81</v>
+      </c>
+      <c r="N42" s="4">
+        <v>890.81</v>
+      </c>
+      <c r="O42" s="4">
+        <v>915.81</v>
+      </c>
+      <c r="P42" s="4">
+        <v>940.81</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>965.81</v>
+      </c>
+      <c r="R42" s="4">
+        <v>990.81</v>
+      </c>
+      <c r="S42" s="4">
         <v>1015.81</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="2">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="3">
         <v>45734</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>816.2884125146727</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>616.29</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>641.29</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>666.29</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>691.29</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>716.29</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>741.29</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>766.29</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>791.29</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>816.29</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>841.29</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="4">
         <v>866.29</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="4">
         <v>891.29</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="4">
         <v>916.29</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="4">
         <v>941.29</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="4">
         <v>966.29</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="4">
         <v>991.29</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="4">
         <v>1016.29</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="2">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="3">
         <v>45735</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>814.9688159124921</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>614.97</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>639.97</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>664.97</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>689.97</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>714.97</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>739.97</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>764.97</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>789.97</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>814.97</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="4">
         <v>839.97</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="4">
         <v>864.97</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="4">
         <v>889.97</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="4">
         <v>914.97</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="4">
         <v>939.97</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="4">
         <v>964.97</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="4">
         <v>989.97</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="4">
         <v>1014.97</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="2">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="3">
         <v>45736</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>812.4949676083298</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>612.49</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>637.49</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>662.49</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>687.49</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>712.49</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>737.49</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>762.49</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>787.49</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>812.49</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <v>837.49</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <v>862.49</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <v>887.49</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="4">
         <v>912.49</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="4">
         <v>937.49</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="4">
         <v>962.49</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="4">
         <v>987.49</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="4">
         <v>1012.49</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="2">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="3">
         <v>45737</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>802.7473903128991</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>602.75</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>627.75</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>652.75</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>677.75</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>702.75</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>727.75</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>752.75</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>777.75</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>802.75</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="4">
         <v>827.75</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="4">
         <v>852.75</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="4">
         <v>877.75</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="4">
         <v>902.75</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="4">
         <v>927.75</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="4">
         <v>952.75</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="4">
         <v>977.75</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="4">
         <v>1002.75</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="2">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="3">
         <v>45740</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>797.7447398872145</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>597.74</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>622.74</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>647.74</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>672.74</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>697.74</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>722.74</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>747.74</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>772.74</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>797.74</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>822.74</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="4">
         <v>847.74</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="4">
         <v>872.74</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="4">
         <v>897.74</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="4">
         <v>922.74</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="4">
         <v>947.74</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="4">
         <v>972.74</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="4">
         <v>997.74</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="2">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="3">
         <v>45741</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>794.3507249156407</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>594.35</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>619.35</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>644.35</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>669.35</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>694.35</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>719.35</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>744.35</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>769.35</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <v>794.35</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="4">
         <v>819.35</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="4">
         <v>844.35</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="4">
         <v>869.35</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="4">
         <v>894.35</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="4">
         <v>919.35</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="4">
         <v>944.35</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="4">
         <v>969.35</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="4">
         <v>994.35</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="2">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="3">
         <v>45742</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>800.2314985636193</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>600.23</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>625.23</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>650.23</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>675.23</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>700.23</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>725.23</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>750.23</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>775.23</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <v>800.23</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="4">
         <v>825.23</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="4">
         <v>850.23</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="4">
         <v>875.23</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="4">
         <v>900.23</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="4">
         <v>925.23</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="4">
         <v>950.23</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="4">
         <v>975.23</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="4">
         <v>1000.23</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="2">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="3">
         <v>45743</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>801.7567369441329</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>601.76</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>626.76</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>651.76</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>676.76</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>701.76</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>726.76</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>751.76</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>776.76</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <v>801.76</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <v>826.76</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="4">
         <v>851.76</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="4">
         <v>876.76</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="4">
         <v>901.76</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="4">
         <v>926.76</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="4">
         <v>951.76</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="4">
         <v>976.76</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="4">
         <v>1001.76</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="2">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="3">
         <v>45744</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>790.4114716912467</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>590.41</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>615.41</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>640.41</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>665.41</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>690.41</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>715.41</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>740.41</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="4">
         <v>765.41</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>790.41</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <v>815.41</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="4">
         <v>840.41</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="4">
         <v>865.41</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="4">
         <v>890.41</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="4">
         <v>915.41</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="4">
         <v>940.41</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="4">
         <v>965.41</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="4">
         <v>990.41</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="2">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="3">
         <v>45747</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>791.799367284191</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>591.8</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>616.8</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>641.8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>666.8</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>691.8</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>716.8</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>741.8</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="4">
         <v>766.8</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="4">
         <v>791.8</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="4">
         <v>816.8</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="4">
         <v>841.8</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="4">
         <v>866.8</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="4">
         <v>891.8</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="4">
         <v>916.8</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="4">
         <v>941.8</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="4">
         <v>966.8</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="4">
         <v>991.8</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="2">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="3">
         <v>45748</v>
       </c>
-      <c r="B53">
-        <v>788.8876241024431</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="4">
+        <v>788.887624102443</v>
+      </c>
+      <c r="C53" s="4">
         <v>588.89</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>613.89</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>638.89</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>663.89</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>688.89</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>713.89</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>738.89</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>763.89</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="4">
         <v>788.89</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="4">
         <v>813.89</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="4">
         <v>838.89</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="4">
         <v>863.89</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="4">
         <v>888.89</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="4">
         <v>913.89</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="4">
         <v>938.89</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="4">
         <v>963.89</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="4">
         <v>988.89</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="2">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="3">
         <v>45749</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>784.2294459620605</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>584.23</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>609.23</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>634.23</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>659.23</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>684.23</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>709.23</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>734.23</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="4">
         <v>759.23</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="4">
         <v>784.23</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="4">
         <v>809.23</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="4">
         <v>834.23</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="4">
         <v>859.23</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="4">
         <v>884.23</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="4">
         <v>909.23</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="4">
         <v>934.23</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="4">
         <v>959.23</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="4">
         <v>984.23</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="2">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="3">
         <v>45750</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>787.3410679571309</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>587.34</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>612.34</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>637.34</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>662.34</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>687.34</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>712.34</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>737.34</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>762.34</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="4">
         <v>787.34</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="4">
         <v>812.34</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="4">
         <v>837.34</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="4">
         <v>862.34</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="4">
         <v>887.34</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="4">
         <v>912.34</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="4">
         <v>937.34</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="4">
         <v>962.34</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="4">
         <v>987.34</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="2">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="3">
         <v>45751</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>793.0110655614511</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>593.01</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>618.01</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>643.01</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>668.01</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>693.01</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>718.01</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>743.01</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <v>768.01</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="4">
         <v>793.01</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="4">
         <v>818.01</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="4">
         <v>843.01</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="4">
         <v>868.01</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="4">
         <v>893.01</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="4">
         <v>918.01</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="4">
         <v>943.01</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="4">
         <v>968.01</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="4">
         <v>993.01</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="2">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="3">
         <v>45754</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>798.1113153770799</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>598.11</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>623.11</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>648.11</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>673.11</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>698.11</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>723.11</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>748.11</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="4">
         <v>773.11</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="4">
         <v>798.11</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="4">
         <v>823.11</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="4">
         <v>848.11</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="4">
         <v>873.11</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="4">
         <v>898.11</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="4">
         <v>923.11</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="4">
         <v>948.11</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="4">
         <v>973.11</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="4">
         <v>998.11</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="2">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3">
         <v>45755</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>792.4118010286411</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>592.41</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>617.41</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>642.41</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>667.41</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>692.41</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>717.41</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>742.41</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>767.41</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="4">
         <v>792.41</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="4">
         <v>817.41</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="4">
         <v>842.41</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="4">
         <v>867.41</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="4">
         <v>892.41</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="4">
         <v>917.41</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="4">
         <v>942.41</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="4">
         <v>967.41</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="4">
         <v>992.41</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="2">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="3">
         <v>45756</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>789.957300048547</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>589.96</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>614.96</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>639.96</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>664.96</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>689.96</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>714.96</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>739.96</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>764.96</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="4">
         <v>789.96</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="4">
         <v>814.96</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="4">
         <v>839.96</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="4">
         <v>864.96</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="4">
         <v>889.96</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="4">
         <v>914.96</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="4">
         <v>939.96</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="4">
         <v>964.96</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="4">
         <v>989.96</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="2">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="3">
         <v>45757</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>791.3879696784883</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>591.39</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>616.39</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>641.39</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>666.39</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>691.39</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>716.39</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>741.39</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="4">
         <v>766.39</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="4">
         <v>791.39</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="4">
         <v>816.39</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="4">
         <v>841.39</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="4">
         <v>866.39</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="4">
         <v>891.39</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="4">
         <v>916.39</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="4">
         <v>941.39</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="4">
         <v>966.39</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="4">
         <v>991.39</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="2">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="3">
         <v>45758</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>796.7482020982962</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <v>596.75</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>621.75</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>646.75</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>671.75</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>696.75</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>721.75</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>746.75</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>771.75</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="4">
         <v>796.75</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="4">
         <v>821.75</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="4">
         <v>846.75</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="4">
         <v>871.75</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="4">
         <v>896.75</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="4">
         <v>921.75</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="4">
         <v>946.75</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="4">
         <v>971.75</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="4">
         <v>996.75</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="2">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="3">
         <v>45761</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>793.2456616136874</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <v>593.25</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>618.25</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>643.25</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>668.25</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>693.25</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>718.25</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>743.25</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="4">
         <v>768.25</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="4">
         <v>793.25</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="4">
         <v>818.25</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="4">
         <v>843.25</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="4">
         <v>868.25</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="4">
         <v>893.25</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="4">
         <v>918.25</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="4">
         <v>943.25</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="4">
         <v>968.25</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="4">
         <v>993.25</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="2">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="3">
         <v>45762</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>791.5382202668187</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>591.54</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>616.54</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>641.54</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>666.54</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>691.54</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>716.54</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>741.54</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="4">
         <v>766.54</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="4">
         <v>791.54</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="4">
         <v>816.54</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="4">
         <v>841.54</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="4">
         <v>866.54</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="4">
         <v>891.54</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="4">
         <v>916.54</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="4">
         <v>941.54</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="4">
         <v>966.54</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="4">
         <v>991.54</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="2">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="3">
         <v>45763</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>784.2774083886153</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>584.28</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>609.28</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>634.28</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>659.28</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>684.28</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>709.28</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>734.28</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="4">
         <v>759.28</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="4">
         <v>784.28</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="4">
         <v>809.28</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="4">
         <v>834.28</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="4">
         <v>859.28</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="4">
         <v>884.28</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="4">
         <v>909.28</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="4">
         <v>934.28</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="4">
         <v>959.28</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="4">
         <v>984.28</v>
       </c>
     </row>
